--- a/ANH CHÂU VTYT HẢI DƯƠNG.xlsx
+++ b/ANH CHÂU VTYT HẢI DƯƠNG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HUYỀN LINH" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,10 @@
     <sheet name="KIM HƯƠNG" sheetId="5" r:id="rId4"/>
     <sheet name="RỒNG VIỆT" sheetId="7" r:id="rId5"/>
     <sheet name="RV T7" sheetId="8" r:id="rId6"/>
+    <sheet name="KH T7" sheetId="9" r:id="rId7"/>
+    <sheet name="HUYENLINH_T7" sheetId="10" r:id="rId8"/>
+    <sheet name="AZENCA_T7" sheetId="11" r:id="rId9"/>
+    <sheet name="CHANHKHAC_T7" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="424">
   <si>
     <t>CN CÔNG TY CP DƯỢC VTYT HẢI DƯƠNG</t>
   </si>
@@ -1087,6 +1091,225 @@
   </si>
   <si>
     <t>TP.HCM, Ngày    tháng 07 năm 2022</t>
+  </si>
+  <si>
+    <t>Tháng   07  năm 2022</t>
+  </si>
+  <si>
+    <t>Hàng Mẫu</t>
+  </si>
+  <si>
+    <t>BVAK Tháp Mười</t>
+  </si>
+  <si>
+    <t>BVDHY Dược Cần Thơ</t>
+  </si>
+  <si>
+    <t>BV DK Sa Đéc</t>
+  </si>
+  <si>
+    <t>Nguyễn Kim - Ô Môn</t>
+  </si>
+  <si>
+    <t>TTYT Hồng Ngự</t>
+  </si>
+  <si>
+    <t>2509+2510</t>
+  </si>
+  <si>
+    <t>2514+2520+2512</t>
+  </si>
+  <si>
+    <t>2534+2535</t>
+  </si>
+  <si>
+    <t>2529+2527+2528</t>
+  </si>
+  <si>
+    <t>2563+2560</t>
+  </si>
+  <si>
+    <t>2582+2581</t>
+  </si>
+  <si>
+    <t>2641+2642</t>
+  </si>
+  <si>
+    <t>2661+2662</t>
+  </si>
+  <si>
+    <t>Phú Tường</t>
+  </si>
+  <si>
+    <t>Cty Thanh Vân</t>
+  </si>
+  <si>
+    <t>ThapyCo</t>
+  </si>
+  <si>
+    <t>BVDK Vĩnh Long</t>
+  </si>
+  <si>
+    <t>TTYT Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Châu Thiên Phú</t>
+  </si>
+  <si>
+    <t>BV Trung Ương Cần Thơ</t>
+  </si>
+  <si>
+    <t>Thapy Co</t>
+  </si>
+  <si>
+    <t>NT Huỳnh Sơn</t>
+  </si>
+  <si>
+    <t>Trung tâm Ung Bứu</t>
+  </si>
+  <si>
+    <t>BVDK K.Vực Hồng Ngự</t>
+  </si>
+  <si>
+    <t>BV Y học Cổ Truyền</t>
+  </si>
+  <si>
+    <t>BV Hạnh Phúc</t>
+  </si>
+  <si>
+    <t>Y Tế Co</t>
+  </si>
+  <si>
+    <t>Hồng Mai</t>
+  </si>
+  <si>
+    <t>TTYT H. Tam Nông</t>
+  </si>
+  <si>
+    <t>BVDK Đồng Tháp</t>
+  </si>
+  <si>
+    <t>TTYT Bình Tân</t>
+  </si>
+  <si>
+    <t>NT Thái Nhân</t>
+  </si>
+  <si>
+    <t>2679+2687</t>
+  </si>
+  <si>
+    <t>2441+2440</t>
+  </si>
+  <si>
+    <t>2664+2665</t>
+  </si>
+  <si>
+    <t>2638+2639</t>
+  </si>
+  <si>
+    <t>2613+2615</t>
+  </si>
+  <si>
+    <t>2612+2611</t>
+  </si>
+  <si>
+    <t>2605+2626</t>
+  </si>
+  <si>
+    <t>2621+2622+2623</t>
+  </si>
+  <si>
+    <t>2684+2685</t>
+  </si>
+  <si>
+    <t>Tây Nam Bộ</t>
+  </si>
+  <si>
+    <t>Cty Phú Tường</t>
+  </si>
+  <si>
+    <t>PK Sài Gòn - Vạn Lộc</t>
+  </si>
+  <si>
+    <t>TTYT TX Long Mỹ</t>
+  </si>
+  <si>
+    <t>TTYT H. Châu Thành</t>
+  </si>
+  <si>
+    <t>BVDK TP Ngã Bảy</t>
+  </si>
+  <si>
+    <t>BV DH Võ Trường Toản</t>
+  </si>
+  <si>
+    <t>BV Xuyên Á</t>
+  </si>
+  <si>
+    <t>TTYY TP. Sa Đéc</t>
+  </si>
+  <si>
+    <t>TTYT H. Tam Bình</t>
+  </si>
+  <si>
+    <t>2704+2703</t>
+  </si>
+  <si>
+    <t>2712+2705</t>
+  </si>
+  <si>
+    <t>2714+2715</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>2700+2694</t>
+  </si>
+  <si>
+    <t>2782+2781</t>
+  </si>
+  <si>
+    <t>2801+2795</t>
+  </si>
+  <si>
+    <t>2833+2832</t>
+  </si>
+  <si>
+    <t>2818+2816</t>
+  </si>
+  <si>
+    <t>Yteco Cần Thơ</t>
+  </si>
+  <si>
+    <t>NT Phú Tường</t>
+  </si>
+  <si>
+    <t>2846+2845</t>
+  </si>
+  <si>
+    <t>2860+2861+2863</t>
+  </si>
+  <si>
+    <t>2865+2864</t>
+  </si>
+  <si>
+    <t>2859+2858</t>
+  </si>
+  <si>
+    <t>2914+2918</t>
+  </si>
+  <si>
+    <t>2895+2898</t>
+  </si>
+  <si>
+    <t>`+ 2897+2896</t>
+  </si>
+  <si>
+    <t>2568 + 2567</t>
+  </si>
+  <si>
+    <t>TTYT H. Hồng Ngự</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1478,6 +1701,33 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1822,7 +2072,7 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1844,16 +2094,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2510,16 +2760,16 @@
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="33"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
@@ -2532,22 +2782,22 @@
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="34"/>
@@ -2578,15 +2828,15 @@
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64" t="s">
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="E38" s="64"/>
+      <c r="E38" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2603,12 +2853,1634 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="1" customWidth="1"/>
+    <col min="10" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1719</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H5" s="23">
+        <f>(F5*G5)</f>
+        <v>70000</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26">
+        <v>44714</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1760</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" ref="H6:H28" si="0">(F6*G6)</f>
+        <v>80000</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1746</v>
+      </c>
+      <c r="F7" s="22">
+        <v>3</v>
+      </c>
+      <c r="G7" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1748</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1773</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2</v>
+      </c>
+      <c r="G10" s="23">
+        <v>70000</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>7</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1747</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>70000</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>8</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>9</v>
+      </c>
+      <c r="B13" s="26">
+        <v>44715</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>139000</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>139000</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>10</v>
+      </c>
+      <c r="B14" s="26">
+        <v>44716</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="22">
+        <v>26</v>
+      </c>
+      <c r="G14" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>1040000</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>11</v>
+      </c>
+      <c r="B15" s="26">
+        <v>44718</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="22">
+        <v>6</v>
+      </c>
+      <c r="G15" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>12</v>
+      </c>
+      <c r="B16" s="26">
+        <v>44719</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1962</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+      <c r="G16" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="22">
+        <v>3</v>
+      </c>
+      <c r="G17" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>14</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1990</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2</v>
+      </c>
+      <c r="G18" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="10" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26">
+        <v>44720</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="23">
+        <v>47000</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>16</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1891</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>17</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1892</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2</v>
+      </c>
+      <c r="G21" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="22">
+        <v>1893</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1881</v>
+      </c>
+      <c r="F23" s="22">
+        <v>6</v>
+      </c>
+      <c r="G23" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>20</v>
+      </c>
+      <c r="B24" s="26">
+        <v>44721</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="22">
+        <v>1926</v>
+      </c>
+      <c r="F24" s="22">
+        <v>3</v>
+      </c>
+      <c r="G24" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>21</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1947</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2</v>
+      </c>
+      <c r="G25" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="0"/>
+        <v>70000</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>22</v>
+      </c>
+      <c r="B26" s="26">
+        <v>44722</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="22">
+        <v>1956</v>
+      </c>
+      <c r="F26" s="22">
+        <v>3</v>
+      </c>
+      <c r="G26" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>23</v>
+      </c>
+      <c r="B27" s="26">
+        <v>44723</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="22">
+        <v>1989</v>
+      </c>
+      <c r="F27" s="22">
+        <v>1</v>
+      </c>
+      <c r="G27" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>24</v>
+      </c>
+      <c r="B28" s="26">
+        <v>44725</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2019</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+      <c r="G28" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="31"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="32"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
+        <v>25</v>
+      </c>
+      <c r="B32" s="26">
+        <v>44725</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="22">
+        <v>2</v>
+      </c>
+      <c r="G32" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H32" s="23">
+        <f>(F32*G32)</f>
+        <v>60000</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" s="79"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <v>26</v>
+      </c>
+      <c r="B33" s="26">
+        <v>44728</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="22">
+        <v>5</v>
+      </c>
+      <c r="G33" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" ref="H33:H53" si="1">(F33*G33)</f>
+        <v>175000</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <v>27</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="22">
+        <v>2</v>
+      </c>
+      <c r="G34" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <v>28</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2065</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23">
+        <v>70000</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>29</v>
+      </c>
+      <c r="B36" s="26">
+        <v>44729</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="22">
+        <v>2</v>
+      </c>
+      <c r="G36" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <v>30</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="22">
+        <v>2165</v>
+      </c>
+      <c r="F37" s="22">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H37" s="23">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22">
+        <v>31</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E38" s="22">
+        <v>2145</v>
+      </c>
+      <c r="F38" s="22">
+        <v>1</v>
+      </c>
+      <c r="G38" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H38" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
+        <v>32</v>
+      </c>
+      <c r="B39" s="26">
+        <v>44730</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="22">
+        <v>1</v>
+      </c>
+      <c r="G39" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H39" s="23">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <v>33</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="22">
+        <v>2181</v>
+      </c>
+      <c r="F40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H40" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>34</v>
+      </c>
+      <c r="B41" s="26">
+        <v>44734</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2230</v>
+      </c>
+      <c r="F41" s="22">
+        <v>1</v>
+      </c>
+      <c r="G41" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H41" s="23">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
+        <v>35</v>
+      </c>
+      <c r="B42" s="26">
+        <v>44735</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="22">
+        <v>2289</v>
+      </c>
+      <c r="F42" s="22">
+        <v>2</v>
+      </c>
+      <c r="G42" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H42" s="23">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="77">
+        <v>36</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="77">
+        <v>1</v>
+      </c>
+      <c r="G43" s="84">
+        <v>30000</v>
+      </c>
+      <c r="H43" s="84">
+        <f>(F43*G43)</f>
+        <v>30000</v>
+      </c>
+      <c r="I43" s="77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="78"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="78"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39">
+        <v>37</v>
+      </c>
+      <c r="B45" s="26">
+        <v>44736</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="22">
+        <v>2315</v>
+      </c>
+      <c r="F45" s="22">
+        <v>6</v>
+      </c>
+      <c r="G45" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H45" s="23">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="10" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>38</v>
+      </c>
+      <c r="B46" s="26">
+        <v>44739</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="22">
+        <v>2374</v>
+      </c>
+      <c r="F46" s="22">
+        <v>1</v>
+      </c>
+      <c r="G46" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H46" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
+        <v>39</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="22">
+        <v>1</v>
+      </c>
+      <c r="G47" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H47" s="23">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39">
+        <v>40</v>
+      </c>
+      <c r="B48" s="26">
+        <v>44740</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22">
+        <v>1</v>
+      </c>
+      <c r="G48" s="23">
+        <v>20000</v>
+      </c>
+      <c r="H48" s="23">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39">
+        <v>41</v>
+      </c>
+      <c r="B49" s="26">
+        <v>44741</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E49" s="22">
+        <v>2471</v>
+      </c>
+      <c r="F49" s="22">
+        <v>1</v>
+      </c>
+      <c r="G49" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H49" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39">
+        <v>42</v>
+      </c>
+      <c r="B50" s="26">
+        <v>44741</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="22">
+        <v>2</v>
+      </c>
+      <c r="G50" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H50" s="23">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39">
+        <v>43</v>
+      </c>
+      <c r="B51" s="26">
+        <v>44741</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="22">
+        <v>2473</v>
+      </c>
+      <c r="F51" s="22">
+        <v>1</v>
+      </c>
+      <c r="G51" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H51" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39">
+        <v>44</v>
+      </c>
+      <c r="B52" s="26">
+        <v>44742</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52" s="22">
+        <v>3</v>
+      </c>
+      <c r="G52" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H52" s="23">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="39">
+        <v>45</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="22">
+        <v>2473</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1</v>
+      </c>
+      <c r="G53" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H53" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="80"/>
+      <c r="H54" s="16">
+        <f>(SUM(H5:H28)+SUM(H32:H53))</f>
+        <v>4351000</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+    </row>
+    <row r="58" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+    </row>
+    <row r="59" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+    </row>
+    <row r="60" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+    </row>
+    <row r="61" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+    </row>
+    <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F62" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2630,16 +4502,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3034,16 +4906,16 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
     </row>
     <row r="22" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
@@ -3056,22 +4928,22 @@
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="34"/>
@@ -3102,15 +4974,15 @@
       <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="64"/>
+      <c r="E28" s="73"/>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="E31" s="37"/>
@@ -3135,7 +5007,7 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3160,16 +5032,16 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3985,8 +5857,8 @@
       <c r="I32" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="M32" s="70"/>
-      <c r="N32" s="71"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="80"/>
       <c r="O32" s="16"/>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4280,43 +6152,43 @@
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68">
+      <c r="A43" s="77">
         <v>36</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="81"/>
+      <c r="C43" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="68">
-        <v>1</v>
-      </c>
-      <c r="G43" s="75">
-        <v>30000</v>
-      </c>
-      <c r="H43" s="75">
+      <c r="F43" s="77">
+        <v>1</v>
+      </c>
+      <c r="G43" s="84">
+        <v>30000</v>
+      </c>
+      <c r="H43" s="84">
         <f>(F43*G43)</f>
         <v>30000</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="77" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="69"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="78"/>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
@@ -4588,10 +6460,10 @@
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="71"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="16">
         <f>(SUM(H5:H28)+SUM(H32:H53))</f>
         <v>4351000</v>
@@ -4624,9 +6496,9 @@
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
     </row>
@@ -4645,17 +6517,17 @@
       <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="67" t="s">
+      <c r="F60" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
     </row>
     <row r="61" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
@@ -4669,23 +6541,23 @@
       <c r="I61" s="41"/>
     </row>
     <row r="62" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F62" s="64" t="s">
+      <c r="F62" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
     </row>
     <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="34"/>
@@ -4716,15 +6588,15 @@
       <c r="E66" s="34"/>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="64" t="s">
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="E67" s="64"/>
+      <c r="E67" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -4758,7 +6630,7 @@
   <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView topLeftCell="A149" zoomScale="114" workbookViewId="0">
-      <selection activeCell="I149" sqref="I1:I1048576"/>
+      <selection activeCell="A149" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4780,16 +6652,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5123,16 +6995,16 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5938,41 +7810,41 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="78">
+      <c r="A64" s="87">
         <v>29</v>
       </c>
-      <c r="B64" s="80">
+      <c r="B64" s="89">
         <v>44723</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="D64" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="F64" s="68">
+      <c r="F64" s="77">
         <v>2</v>
       </c>
-      <c r="G64" s="75">
-        <v>30000</v>
-      </c>
-      <c r="H64" s="75">
+      <c r="G64" s="84">
+        <v>30000</v>
+      </c>
+      <c r="H64" s="84">
         <f>(F64*G64)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="79"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
     </row>
     <row r="66" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
@@ -7315,41 +9187,41 @@
       </c>
     </row>
     <row r="127" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="78">
+      <c r="A127" s="87">
         <v>80</v>
       </c>
-      <c r="B127" s="80">
+      <c r="B127" s="89">
         <v>44737</v>
       </c>
-      <c r="C127" s="68" t="s">
+      <c r="C127" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D127" s="68" t="s">
+      <c r="D127" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E127" s="74" t="s">
+      <c r="E127" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="F127" s="68">
+      <c r="F127" s="77">
         <v>3</v>
       </c>
-      <c r="G127" s="75">
+      <c r="G127" s="84">
         <v>27000</v>
       </c>
-      <c r="H127" s="75">
+      <c r="H127" s="84">
         <f t="shared" si="3"/>
         <v>81000</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="79"/>
-      <c r="B128" s="81"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="69"/>
-      <c r="G128" s="76"/>
-      <c r="H128" s="76"/>
+      <c r="A128" s="88"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
     </row>
     <row r="129" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
@@ -7896,16 +9768,16 @@
       </c>
     </row>
     <row r="158" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="66"/>
-      <c r="B158" s="66"/>
-      <c r="C158" s="66"/>
+      <c r="A158" s="75"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
       <c r="D158" s="33"/>
       <c r="E158" s="33"/>
-      <c r="F158" s="77" t="s">
+      <c r="F158" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="G158" s="77"/>
-      <c r="H158" s="77"/>
+      <c r="G158" s="86"/>
+      <c r="H158" s="86"/>
     </row>
     <row r="159" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="36"/>
@@ -7918,22 +9790,22 @@
       <c r="H159" s="41"/>
     </row>
     <row r="160" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="64" t="s">
+      <c r="A160" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="B160" s="64"/>
-      <c r="C160" s="64"/>
+      <c r="B160" s="73"/>
+      <c r="C160" s="73"/>
       <c r="D160" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F160" s="64" t="s">
+      <c r="F160" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="G160" s="64"/>
-      <c r="H160" s="64"/>
+      <c r="G160" s="73"/>
+      <c r="H160" s="73"/>
     </row>
     <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="34"/>
@@ -7964,15 +9836,15 @@
       <c r="E164" s="34"/>
     </row>
     <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="63" t="s">
+      <c r="A165" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="B165" s="63"/>
-      <c r="C165" s="63"/>
-      <c r="D165" s="64" t="s">
+      <c r="B165" s="72"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="E165" s="64"/>
+      <c r="E165" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -8033,16 +9905,16 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -10627,39 +12499,39 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="68">
+      <c r="A111" s="77">
         <v>95</v>
       </c>
-      <c r="B111" s="72"/>
-      <c r="C111" s="68" t="s">
+      <c r="B111" s="81"/>
+      <c r="C111" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="68" t="s">
+      <c r="D111" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E111" s="74" t="s">
+      <c r="E111" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="F111" s="68">
+      <c r="F111" s="77">
         <v>3</v>
       </c>
-      <c r="G111" s="75">
-        <v>30000</v>
-      </c>
-      <c r="H111" s="75">
+      <c r="G111" s="84">
+        <v>30000</v>
+      </c>
+      <c r="H111" s="84">
         <f>F111*G111</f>
         <v>90000</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="69"/>
-      <c r="B112" s="73"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
+      <c r="A112" s="78"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
     </row>
     <row r="113" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
@@ -12010,17 +13882,17 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="66"/>
-      <c r="B178" s="66"/>
-      <c r="C178" s="66"/>
+      <c r="A178" s="75"/>
+      <c r="B178" s="75"/>
+      <c r="C178" s="75"/>
       <c r="D178" s="33"/>
       <c r="E178" s="33"/>
-      <c r="F178" s="67" t="s">
+      <c r="F178" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="G178" s="67"/>
-      <c r="H178" s="67"/>
-      <c r="I178" s="67"/>
+      <c r="G178" s="76"/>
+      <c r="H178" s="76"/>
+      <c r="I178" s="76"/>
     </row>
     <row r="179" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="36"/>
@@ -12034,23 +13906,23 @@
       <c r="I179" s="41"/>
     </row>
     <row r="180" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="64" t="s">
+      <c r="A180" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="B180" s="64"/>
-      <c r="C180" s="64"/>
+      <c r="B180" s="73"/>
+      <c r="C180" s="73"/>
       <c r="D180" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F180" s="64" t="s">
+      <c r="F180" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="G180" s="64"/>
-      <c r="H180" s="64"/>
-      <c r="I180" s="64"/>
+      <c r="G180" s="73"/>
+      <c r="H180" s="73"/>
+      <c r="I180" s="73"/>
     </row>
     <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="34"/>
@@ -12081,15 +13953,15 @@
       <c r="E184" s="34"/>
     </row>
     <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="63" t="s">
+      <c r="A185" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="B185" s="63"/>
-      <c r="C185" s="63"/>
-      <c r="D185" s="64" t="s">
+      <c r="B185" s="72"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="E185" s="64"/>
+      <c r="E185" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12118,7 +13990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
@@ -12141,16 +14013,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -14036,17 +15908,17 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="75"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
-      <c r="F79" s="67" t="s">
+      <c r="F79" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
     </row>
     <row r="80" spans="1:9" ht="9.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="52"/>
@@ -14060,23 +15932,23 @@
       <c r="I80" s="53"/>
     </row>
     <row r="81" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
       <c r="D81" s="2" t="s">
         <v>263</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F81" s="64" t="s">
+      <c r="F81" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
     </row>
     <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="34"/>
@@ -14111,15 +15983,15 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="63" t="s">
+      <c r="A86" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64" t="s">
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="E86" s="64"/>
+      <c r="E86" s="73"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -14138,4 +16010,4341 @@
   <pageMargins left="0.25" right="0.2" top="0.25" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>44743</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="58">
+        <v>27000</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5*F5</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="58">
+        <v>40000</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H28" si="0">G6*F6</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2498</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2508</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2501</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="58">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58">
+        <v>40000</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2405</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2403</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="58">
+        <v>40000</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2397</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="58">
+        <v>27000</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2492</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="58">
+        <v>27000</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="15">
+        <v>44744</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2444</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="58">
+        <v>25000</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="58">
+        <v>25000</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="15">
+        <v>44746</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="58">
+        <v>40000</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="15">
+        <v>44747</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2578</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2566</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2574</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2573</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="58">
+        <v>27000</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2587</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2589</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2584</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15">
+        <v>44749</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="58">
+        <v>30000</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="15">
+        <v>44749</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F33" s="22">
+        <v>6</v>
+      </c>
+      <c r="G33" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H33" s="23">
+        <f>(F33*G33)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="F34" s="22">
+        <v>2</v>
+      </c>
+      <c r="G34" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" ref="H34:H56" si="1">(F34*G34)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>3</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2560</v>
+      </c>
+      <c r="F35" s="22">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2658</v>
+      </c>
+      <c r="F36" s="22">
+        <v>2</v>
+      </c>
+      <c r="G36" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="22">
+        <v>2655</v>
+      </c>
+      <c r="F37" s="22">
+        <v>5</v>
+      </c>
+      <c r="G37" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H37" s="23">
+        <f t="shared" si="1"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="22">
+        <v>2643</v>
+      </c>
+      <c r="F38" s="22">
+        <v>4</v>
+      </c>
+      <c r="G38" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H38" s="23">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>7</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F39" s="22">
+        <v>3</v>
+      </c>
+      <c r="G39" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H39" s="23">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>8</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="22">
+        <v>2581</v>
+      </c>
+      <c r="F40" s="22">
+        <v>2</v>
+      </c>
+      <c r="G40" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H40" s="23">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>9</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2424</v>
+      </c>
+      <c r="F41" s="22">
+        <v>6</v>
+      </c>
+      <c r="G41" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H41" s="23">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E42" s="22">
+        <v>2627</v>
+      </c>
+      <c r="F42" s="22">
+        <v>1</v>
+      </c>
+      <c r="G42" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H42" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="22">
+        <v>2437</v>
+      </c>
+      <c r="F43" s="22">
+        <v>4</v>
+      </c>
+      <c r="G43" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H43" s="23">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="F44" s="22">
+        <v>3</v>
+      </c>
+      <c r="G44" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H44" s="23">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>13</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" s="22">
+        <v>2620</v>
+      </c>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H45" s="23">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" s="22">
+        <v>2</v>
+      </c>
+      <c r="G46" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H46" s="23">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>15</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="22">
+        <v>2399</v>
+      </c>
+      <c r="F47" s="22">
+        <v>10</v>
+      </c>
+      <c r="G47" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H47" s="23">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>16</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F48" s="22">
+        <v>26</v>
+      </c>
+      <c r="G48" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H48" s="23">
+        <f t="shared" si="1"/>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>17</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E49" s="22">
+        <v>2602</v>
+      </c>
+      <c r="F49" s="22">
+        <v>2</v>
+      </c>
+      <c r="G49" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H49" s="23">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>18</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F50" s="22">
+        <v>23</v>
+      </c>
+      <c r="G50" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H50" s="23">
+        <f t="shared" si="1"/>
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>19</v>
+      </c>
+      <c r="B51" s="15">
+        <v>44750</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E51" s="22">
+        <v>2670</v>
+      </c>
+      <c r="F51" s="22">
+        <v>10</v>
+      </c>
+      <c r="G51" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H51" s="23">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>20</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E52" s="22">
+        <v>2646</v>
+      </c>
+      <c r="F52" s="22">
+        <v>1</v>
+      </c>
+      <c r="G52" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H52" s="23">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="22">
+        <v>2666</v>
+      </c>
+      <c r="F53" s="22">
+        <v>11</v>
+      </c>
+      <c r="G53" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H53" s="23">
+        <f t="shared" si="1"/>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>22</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E54" s="22">
+        <v>2633</v>
+      </c>
+      <c r="F54" s="22">
+        <v>1</v>
+      </c>
+      <c r="G54" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H54" s="23">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>23</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F55" s="22">
+        <v>21</v>
+      </c>
+      <c r="G55" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H55" s="23">
+        <f t="shared" si="1"/>
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>24</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F56" s="22">
+        <v>6</v>
+      </c>
+      <c r="G56" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H56" s="23">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+    </row>
+    <row r="58" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="1:9" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>25</v>
+      </c>
+      <c r="B60" s="15">
+        <v>44751</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="F60" s="22">
+        <v>3</v>
+      </c>
+      <c r="G60" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H60" s="23">
+        <f>(F60*G60)</f>
+        <v>75000</v>
+      </c>
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>26</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="22">
+        <v>2701</v>
+      </c>
+      <c r="F61" s="22">
+        <v>1</v>
+      </c>
+      <c r="G61" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H61" s="23">
+        <f>(F61*G61)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>27</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="F62" s="22">
+        <v>1</v>
+      </c>
+      <c r="G62" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H62" s="23">
+        <f>(F62*G62)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>28</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F63" s="22">
+        <v>6</v>
+      </c>
+      <c r="G63" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H63" s="23">
+        <f>(F63*G63)</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="87">
+        <v>29</v>
+      </c>
+      <c r="B64" s="89"/>
+      <c r="C64" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="83">
+        <v>2713</v>
+      </c>
+      <c r="F64" s="77">
+        <v>1</v>
+      </c>
+      <c r="G64" s="84">
+        <v>40000</v>
+      </c>
+      <c r="H64" s="84">
+        <f>(F64*G64)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="88"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+    </row>
+    <row r="66" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>30</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F66" s="22">
+        <v>1</v>
+      </c>
+      <c r="G66" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H66" s="23">
+        <f t="shared" ref="H66:H84" si="2">(F66*G66)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>31</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F67" s="22">
+        <v>17</v>
+      </c>
+      <c r="G67" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H67" s="23">
+        <f t="shared" si="2"/>
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>32</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="22">
+        <v>2706</v>
+      </c>
+      <c r="F68" s="22">
+        <v>5</v>
+      </c>
+      <c r="G68" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H68" s="23">
+        <f t="shared" si="2"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>33</v>
+      </c>
+      <c r="B69" s="15">
+        <v>44753</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="E69" s="22">
+        <v>2733</v>
+      </c>
+      <c r="F69" s="22">
+        <v>1</v>
+      </c>
+      <c r="G69" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H69" s="23">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>34</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="22">
+        <v>2734</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1</v>
+      </c>
+      <c r="G70" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H70" s="23">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>35</v>
+      </c>
+      <c r="B71" s="15">
+        <v>44754</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="22">
+        <v>2761</v>
+      </c>
+      <c r="F71" s="22">
+        <v>1</v>
+      </c>
+      <c r="G71" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H71" s="23">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>36</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="22">
+        <v>2768</v>
+      </c>
+      <c r="F72" s="22">
+        <v>2</v>
+      </c>
+      <c r="G72" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H72" s="23">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>37</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="22">
+        <v>2752</v>
+      </c>
+      <c r="F73" s="22">
+        <v>4</v>
+      </c>
+      <c r="G73" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H73" s="23">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>38</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="22">
+        <v>2765</v>
+      </c>
+      <c r="F74" s="22">
+        <v>1</v>
+      </c>
+      <c r="G74" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H74" s="23">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>39</v>
+      </c>
+      <c r="B75" s="15">
+        <v>44755</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F75" s="22">
+        <v>1</v>
+      </c>
+      <c r="G75" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H75" s="23">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>40</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F76" s="22">
+        <v>2</v>
+      </c>
+      <c r="G76" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H76" s="23">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>41</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="22">
+        <v>2789</v>
+      </c>
+      <c r="F77" s="22">
+        <v>2</v>
+      </c>
+      <c r="G77" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H77" s="23">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>42</v>
+      </c>
+      <c r="B78" s="15">
+        <v>44756</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="22">
+        <v>2838</v>
+      </c>
+      <c r="F78" s="22">
+        <v>1</v>
+      </c>
+      <c r="G78" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H78" s="23">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>43</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="22">
+        <v>2829</v>
+      </c>
+      <c r="F79" s="22">
+        <v>1</v>
+      </c>
+      <c r="G79" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H79" s="23">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>44</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F80" s="22">
+        <v>6</v>
+      </c>
+      <c r="G80" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H80" s="23">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>45</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E81" s="22">
+        <v>2822</v>
+      </c>
+      <c r="F81" s="22">
+        <v>1</v>
+      </c>
+      <c r="G81" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H81" s="23">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>46</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="E82" s="22">
+        <v>2827</v>
+      </c>
+      <c r="F82" s="22">
+        <v>2</v>
+      </c>
+      <c r="G82" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H82" s="23">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>47</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1</v>
+      </c>
+      <c r="G83" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H83" s="23">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>48</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E84" s="22">
+        <v>2826</v>
+      </c>
+      <c r="F84" s="22">
+        <v>1</v>
+      </c>
+      <c r="G84" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H84" s="23">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+    </row>
+    <row r="86" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>49</v>
+      </c>
+      <c r="B90" s="15">
+        <v>44757</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" s="22">
+        <v>15</v>
+      </c>
+      <c r="G90" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H90" s="23">
+        <f t="shared" ref="H90:H113" si="3">(F90*G90)</f>
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>50</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="E91" s="22">
+        <v>2849</v>
+      </c>
+      <c r="F91" s="22">
+        <v>1</v>
+      </c>
+      <c r="G91" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H91" s="23">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>51</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="22">
+        <v>2856</v>
+      </c>
+      <c r="F92" s="22">
+        <v>15</v>
+      </c>
+      <c r="G92" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H92" s="23">
+        <f t="shared" si="3"/>
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>52</v>
+      </c>
+      <c r="B93" s="15">
+        <v>44758</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" s="22">
+        <v>2875</v>
+      </c>
+      <c r="F93" s="22">
+        <v>1</v>
+      </c>
+      <c r="G93" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H93" s="23">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>53</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="F94" s="22">
+        <v>2</v>
+      </c>
+      <c r="G94" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H94" s="23">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F95" s="22"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>54</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="22">
+        <v>1</v>
+      </c>
+      <c r="G96" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H96" s="23">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>55</v>
+      </c>
+      <c r="B97" s="15">
+        <v>44760</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E97" s="22">
+        <v>2915</v>
+      </c>
+      <c r="F97" s="22">
+        <v>1</v>
+      </c>
+      <c r="G97" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H97" s="23">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>56</v>
+      </c>
+      <c r="B98" s="15"/>
+      <c r="C98" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F98" s="22">
+        <v>8</v>
+      </c>
+      <c r="G98" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H98" s="23">
+        <f t="shared" si="3"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>57</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="22">
+        <v>2920</v>
+      </c>
+      <c r="F99" s="22">
+        <v>1</v>
+      </c>
+      <c r="G99" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H99" s="23">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>58</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="22">
+        <v>2917</v>
+      </c>
+      <c r="F100" s="22">
+        <v>3</v>
+      </c>
+      <c r="G100" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H100" s="23">
+        <f t="shared" si="3"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>59</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="22">
+        <v>2903</v>
+      </c>
+      <c r="F101" s="22">
+        <v>6</v>
+      </c>
+      <c r="G101" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H101" s="23">
+        <f t="shared" si="3"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>60</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="F102" s="22">
+        <v>3</v>
+      </c>
+      <c r="G102" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H102" s="23">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>61</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F103" s="22"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="22">
+        <v>2888</v>
+      </c>
+      <c r="F104" s="22">
+        <v>25</v>
+      </c>
+      <c r="G104" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>62</v>
+      </c>
+      <c r="B105" s="15">
+        <v>44761</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" s="22">
+        <v>2925</v>
+      </c>
+      <c r="F105" s="22">
+        <v>1</v>
+      </c>
+      <c r="G105" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H105" s="23">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>63</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="22">
+        <v>2956</v>
+      </c>
+      <c r="F106" s="22">
+        <v>1</v>
+      </c>
+      <c r="G106" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H106" s="23">
+        <f t="shared" si="3"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>64</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="22">
+        <v>2927</v>
+      </c>
+      <c r="F107" s="22">
+        <v>1</v>
+      </c>
+      <c r="G107" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H107" s="23">
+        <f t="shared" si="3"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>65</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E108" s="22">
+        <v>2928</v>
+      </c>
+      <c r="F108" s="22">
+        <v>4</v>
+      </c>
+      <c r="G108" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H108" s="23">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>66</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" s="22">
+        <v>2929</v>
+      </c>
+      <c r="F109" s="22">
+        <v>3</v>
+      </c>
+      <c r="G109" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H109" s="23">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>67</v>
+      </c>
+      <c r="B110" s="15">
+        <v>44762</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E110" s="22">
+        <v>2964</v>
+      </c>
+      <c r="F110" s="22">
+        <v>2</v>
+      </c>
+      <c r="G110" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H110" s="23">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>68</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="22">
+        <v>2956</v>
+      </c>
+      <c r="F111" s="22">
+        <v>1</v>
+      </c>
+      <c r="G111" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H111" s="23">
+        <f t="shared" si="3"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>69</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" s="22">
+        <v>2951</v>
+      </c>
+      <c r="F112" s="22">
+        <v>3</v>
+      </c>
+      <c r="G112" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H112" s="23">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>70</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" s="22">
+        <v>2959</v>
+      </c>
+      <c r="F113" s="22">
+        <v>6</v>
+      </c>
+      <c r="G113" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H113" s="23">
+        <f t="shared" si="3"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>71</v>
+      </c>
+      <c r="B120" s="15">
+        <v>44763</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E120" s="22">
+        <v>2976</v>
+      </c>
+      <c r="F120" s="22"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>72</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>73</v>
+      </c>
+      <c r="B122" s="15">
+        <v>44764</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>74</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+    </row>
+    <row r="124" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>75</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="23"/>
+    </row>
+    <row r="125" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>76</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
+    </row>
+    <row r="126" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>77</v>
+      </c>
+      <c r="B126" s="15"/>
+      <c r="C126" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>78</v>
+      </c>
+      <c r="B127" s="15">
+        <v>44765</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+    </row>
+    <row r="128" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="69"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+    </row>
+    <row r="129" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4"/>
+      <c r="B129" s="15">
+        <v>44767</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+    </row>
+    <row r="130" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+    </row>
+    <row r="131" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+    </row>
+    <row r="132" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23"/>
+    </row>
+    <row r="133" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="23"/>
+      <c r="H133" s="23"/>
+    </row>
+    <row r="134" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+      <c r="B134" s="15">
+        <v>44768</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="23"/>
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="22"/>
+      <c r="E136" s="22"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
+    </row>
+    <row r="137" spans="1:8" s="11" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23"/>
+    </row>
+    <row r="138" spans="1:8" s="12" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4"/>
+      <c r="B138" s="15">
+        <v>44769</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="1:8" s="10" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139" s="22"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="22"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="23"/>
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D141" s="22"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23"/>
+    </row>
+    <row r="142" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="23"/>
+    </row>
+    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143" s="22">
+        <v>3127</v>
+      </c>
+      <c r="F143" s="22">
+        <v>1</v>
+      </c>
+      <c r="G143" s="23">
+        <v>25000</v>
+      </c>
+      <c r="H143" s="23">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:8" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>95</v>
+      </c>
+      <c r="B150" s="15">
+        <v>44740</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E150" s="22">
+        <v>2438</v>
+      </c>
+      <c r="F150" s="22">
+        <v>17</v>
+      </c>
+      <c r="G150" s="23">
+        <v>35000</v>
+      </c>
+      <c r="H150" s="23">
+        <f t="shared" ref="H150:H155" si="4">(F150*G150)</f>
+        <v>595000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>96</v>
+      </c>
+      <c r="B151" s="15">
+        <v>44741</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="F151" s="22">
+        <v>12</v>
+      </c>
+      <c r="G151" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H151" s="23">
+        <f t="shared" si="4"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>97</v>
+      </c>
+      <c r="B152" s="4"/>
+      <c r="C152" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E152" s="22">
+        <v>2463</v>
+      </c>
+      <c r="F152" s="22">
+        <v>1</v>
+      </c>
+      <c r="G152" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H152" s="23">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>98</v>
+      </c>
+      <c r="B153" s="15"/>
+      <c r="C153" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F153" s="22">
+        <v>2</v>
+      </c>
+      <c r="G153" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H153" s="23">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>99</v>
+      </c>
+      <c r="B154" s="4"/>
+      <c r="C154" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E154" s="22">
+        <v>2442</v>
+      </c>
+      <c r="F154" s="22">
+        <v>1</v>
+      </c>
+      <c r="G154" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H154" s="23">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>100</v>
+      </c>
+      <c r="B155" s="15"/>
+      <c r="C155" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E155" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="F155" s="22">
+        <v>2</v>
+      </c>
+      <c r="G155" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H155" s="23">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G156" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H156" s="16">
+        <f>SUM(SUM(H33:H56)+SUM(H60:H84)+SUM(H90:H113)+SUM(H120:H142)+SUM(H150:H155))</f>
+        <v>10040000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="75"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="75"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="G158" s="86"/>
+      <c r="H158" s="86"/>
+    </row>
+    <row r="159" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="62"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="62"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="63"/>
+      <c r="G159" s="63"/>
+      <c r="H159" s="63"/>
+    </row>
+    <row r="160" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="B160" s="73"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F160" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G160" s="73"/>
+      <c r="H160" s="73"/>
+    </row>
+    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="34"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="34"/>
+    </row>
+    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="34"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="34"/>
+    </row>
+    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="34"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="34"/>
+    </row>
+    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="34"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="B165" s="72"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="E165" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="F160:H160"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26">
+        <v>44747</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H5" s="23">
+        <f>(F5*G5)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2558</v>
+      </c>
+      <c r="F6" s="22">
+        <v>4</v>
+      </c>
+      <c r="G6" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" ref="H6:H27" si="0">(F6*G6)</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="26">
+        <v>44758</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2565</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <v>50000</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2878</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>9</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>11</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>12</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <v>16</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>17</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>20</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>21</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>22</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <v>23</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="16">
+        <f>SUM(H5:H27)</f>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+    </row>
+    <row r="32" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26">
+        <v>44713</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H5" s="23">
+        <f>(F5*G5)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26">
+        <v>44715</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1754</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" ref="H6:H17" si="0">(F6*G6)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="26">
+        <v>44719</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1853</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="26">
+        <v>44721</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26">
+        <v>44726</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="22">
+        <v>2040</v>
+      </c>
+      <c r="F9" s="22">
+        <v>3</v>
+      </c>
+      <c r="G9" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26">
+        <v>44728</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="22">
+        <v>2089</v>
+      </c>
+      <c r="F10" s="22">
+        <v>6</v>
+      </c>
+      <c r="G10" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26">
+        <v>44733</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+      <c r="G11" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26">
+        <v>44734</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="22">
+        <v>2264</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26">
+        <v>44735</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2286</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="22">
+        <v>2284</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="22">
+        <v>2281</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+      <c r="G15" s="23">
+        <v>40000</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26">
+        <v>44736</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+      <c r="G16" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26">
+        <v>44742</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22">
+        <v>3</v>
+      </c>
+      <c r="G17" s="23">
+        <v>30000</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="G18" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="16">
+        <f>SUM(H5:H17)</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+    </row>
+    <row r="22" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="73"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="E31" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>